--- a/20220930留学計画(妹).xlsx
+++ b/20220930留学計画(妹).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kế hoạch đi du học của em gái20220930\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\hay\kế hoạch đi du học của em gái20220930\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>tiền học tiếng nhật</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>vay tiền ngân hàng hoặc nhà ông hà</t>
+  </si>
+  <si>
+    <t>お</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GB24"/>
+  <dimension ref="A1:GB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1397,6 +1400,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="26" spans="1:32">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
